--- a/biology/Zoologie/Bunyoronius_femoralis/Bunyoronius_femoralis.xlsx
+++ b/biology/Zoologie/Bunyoronius_femoralis/Bunyoronius_femoralis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bunyoronius femoralis, unique représentant du genre Bunyoronius, est une espèce d'araignées aranéomorphes de la famille des Corinnidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bunyoronius femoralis, unique représentant du genre Bunyoronius, est une espèce d'araignées aranéomorphes de la famille des Corinnidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Ouganda, au Rwanda et en Centrafrique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Ouganda, au Rwanda et en Centrafrique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 7,37 mm et la femelle paratype 6,92 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 7,37 mm et la femelle paratype 6,92 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Bonaldo, Ramírez et Haddad en 2022.
 Ce genre a été décrit par Bonaldo, Ramírez et Haddad en 2022 dans les Corinnidae.
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bonaldo, Bosselaers, Ramírez, Labarque, Shimano, Silva-Junior &amp; Haddad, 2022 : « Switching identities: a revision of the Afrotropical spider genus Carteronius Simon, 1897 (Araneae, Corinnidae), senior synonym of Mandaneta Strand, 1932, with a new genus of the Pronophaea group. » Zootaxa, no 5205(4), p. 343-373.</t>
         </is>
